--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>2999.739304121013</v>
+        <v>2.180217129326</v>
       </c>
       <c r="R2">
-        <v>26997.65373708912</v>
+        <v>19.621954163934</v>
       </c>
       <c r="S2">
-        <v>0.5040912445229555</v>
+        <v>0.003006049606144582</v>
       </c>
       <c r="T2">
-        <v>0.5040912445229555</v>
+        <v>0.003006049606144583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>17.406561486794</v>
+        <v>12.44494577651489</v>
       </c>
       <c r="R3">
-        <v>156.659053381146</v>
+        <v>112.004511988634</v>
       </c>
       <c r="S3">
-        <v>0.002925085933530629</v>
+        <v>0.01715889846326836</v>
       </c>
       <c r="T3">
-        <v>0.002925085933530629</v>
+        <v>0.01715889846326836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>158.512645836755</v>
+        <v>219.5371102089543</v>
       </c>
       <c r="R4">
-        <v>1426.613812530795</v>
+        <v>1975.833991880588</v>
       </c>
       <c r="S4">
-        <v>0.02663726037882819</v>
+        <v>0.3026943669054479</v>
       </c>
       <c r="T4">
-        <v>0.02663726037882819</v>
+        <v>0.3026943669054479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>1520.88625997877</v>
+        <v>1.54608351726</v>
       </c>
       <c r="R5">
-        <v>13687.97633980893</v>
+        <v>13.91475165534</v>
       </c>
       <c r="S5">
-        <v>0.2555773585115627</v>
+        <v>0.002131716004617774</v>
       </c>
       <c r="T5">
-        <v>0.2555773585115627</v>
+        <v>0.002131716004617774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
-        <v>8.825233633593333</v>
+        <v>8.825233633593331</v>
       </c>
       <c r="R6">
         <v>79.42710270233999</v>
       </c>
       <c r="S6">
-        <v>0.00148303654235963</v>
+        <v>0.01216809543029251</v>
       </c>
       <c r="T6">
-        <v>0.00148303654235963</v>
+        <v>0.01216809543029251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>80.36688546728335</v>
+        <v>155.6829835686534</v>
       </c>
       <c r="R7">
-        <v>723.3019692055501</v>
+        <v>1401.14685211788</v>
       </c>
       <c r="S7">
-        <v>0.01350525469262658</v>
+        <v>0.2146532862002787</v>
       </c>
       <c r="T7">
-        <v>0.01350525469262658</v>
+        <v>0.2146532862002787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>1100.510235671745</v>
+        <v>3.026538835514</v>
       </c>
       <c r="R8">
-        <v>9904.592121045705</v>
+        <v>27.238849519626</v>
       </c>
       <c r="S8">
-        <v>0.1849352620569062</v>
+        <v>0.004172944865033101</v>
       </c>
       <c r="T8">
-        <v>0.1849352620569062</v>
+        <v>0.004172944865033102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>6.385921289143332</v>
+        <v>17.27585348810289</v>
       </c>
       <c r="R9">
-        <v>57.47329160228999</v>
+        <v>155.482681392926</v>
       </c>
       <c r="S9">
-        <v>0.00107312225620658</v>
+        <v>0.02381967918478727</v>
       </c>
       <c r="T9">
-        <v>0.00107312225620658</v>
+        <v>0.02381967918478727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>58.15331651890834</v>
+        <v>304.7575312323702</v>
       </c>
       <c r="R10">
-        <v>523.379848670175</v>
+        <v>2742.817781091332</v>
       </c>
       <c r="S10">
-        <v>0.009772375105023882</v>
+        <v>0.4201949633401299</v>
       </c>
       <c r="T10">
-        <v>0.00977237510502388</v>
+        <v>0.4201949633401299</v>
       </c>
     </row>
   </sheetData>
